--- a/biology/Zoologie/Couleuvre_léopard/Couleuvre_léopard.xlsx
+++ b/biology/Zoologie/Couleuvre_léopard/Couleuvre_léopard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamenis situla
-La Couleuvre léopard, Zamenis situla, est une espèce de serpent de la famille des Colubridae[1].
+La Couleuvre léopard, Zamenis situla, est une espèce de serpent de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Centre et l'Est de l'Europe, à Malte[2], ainsi qu'en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Centre et l'Est de l'Europe, à Malte, ainsi qu'en Turquie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 70 à 100 cm. Elle est non-venimeuse mais peut mordre.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Élevage en captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée par la convention de Berne.
-On la retrouve parfois en terrariophilie mais elle est réputée pour sa maintenance difficile[3].
+On la retrouve parfois en terrariophilie mais elle est réputée pour sa maintenance difficile.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, situla, vient du grec σιτος, « le blé », en référence à son habitat[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, situla, vient du grec σιτος, « le blé », en référence à son habitat.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Couleuvre_l%C3%A9opard</t>
+          <t>Couleuvre_léopard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
